--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-897544.2442245475</v>
+        <v>-899431.825740949</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289962.5559765022</v>
+        <v>213773.0066160697</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>214.6745513216756</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.38087788758661</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -826,10 +826,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>123.4514883688808</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>128.6652719985047</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>5.983388191319154</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>136.7776834342836</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>42.98425264020207</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.3408772460431</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>224.4500349642803</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>296.4456281581539</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.2892934723213062</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>110.3135593404359</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274196</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.33724577870963</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>17.93106827885186</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>255.4853389885909</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>150.8003755784921</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.54872654977457</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>142.719749724793</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>14.43828793424688</v>
       </c>
       <c r="U22" t="n">
-        <v>204.2821804499782</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>22.63228157486873</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.4348878852342</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>48.11652230853556</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>252.6841021285857</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965528</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437417</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>61.5516055859841</v>
+        <v>34.09544203220629</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897906</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571496</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523573</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3004,19 +3004,19 @@
         <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692892</v>
       </c>
       <c r="F34" t="n">
         <v>77.28915789329059</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789547</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415213</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1345.301239238533</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D2" t="n">
         <v>1345.301239238533</v>
@@ -4316,7 +4316,7 @@
         <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4325,7 +4325,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4334,46 +4334,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312744</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.09000478155</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1345.301239238533</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4419,31 +4419,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>603.4305111065548</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>603.4305111065548</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>603.4305111065548</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>348.7460229006679</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="W4" t="n">
-        <v>348.7460229006679</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="X4" t="n">
-        <v>348.7460229006679</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1610.120910258947</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U5" t="n">
-        <v>2327.78363766664</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V5" t="n">
-        <v>1996.720750323069</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W5" t="n">
-        <v>1996.720750323069</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X5" t="n">
-        <v>1996.720750323069</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1996.720750323069</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,37 +4656,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.346854164887</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>279.346854164887</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>279.346854164887</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>279.346854164887</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4759,16 +4759,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.346854164887</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1056.889695563555</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>1056.889695563555</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>698.6239969568041</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>698.6239969568041</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4814,40 +4814,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2397.709062575643</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888756</v>
+        <v>2397.709062575643</v>
       </c>
       <c r="X8" t="n">
-        <v>1443.489535627676</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y8" t="n">
-        <v>1443.489535627676</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,31 +4893,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.4236418782191</v>
+        <v>223.2349977106394</v>
       </c>
       <c r="C10" t="n">
-        <v>315.4874589503122</v>
+        <v>223.2349977106394</v>
       </c>
       <c r="D10" t="n">
-        <v>165.3708195379765</v>
+        <v>223.2349977106394</v>
       </c>
       <c r="E10" t="n">
-        <v>165.3708195379765</v>
+        <v>223.2349977106394</v>
       </c>
       <c r="F10" t="n">
-        <v>165.3708195379765</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>165.3708195379765</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4987,25 +4987,25 @@
         <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782191</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782191</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782191</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782191</v>
+        <v>444.0275768541695</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.4236418782191</v>
+        <v>223.2349977106394</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805482</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822475</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,13 +5115,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
         <v>1288.32563221405</v>
@@ -5136,7 +5136,7 @@
         <v>2201.935021465331</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2384.578499078682</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005286</v>
+        <v>579.0685056491548</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>410.1323227212478</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,7 +5215,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557903</v>
@@ -5230,19 +5230,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771462</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655746</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286139</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286139</v>
+        <v>981.5095496229245</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.8933943850838</v>
+        <v>760.7169704793945</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823777</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514074</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5343,28 +5343,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>280.6570073165059</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>894.5540770733946</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M15" t="n">
-        <v>1214.889396603096</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N15" t="n">
         <v>1559.410052240715</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1017.064856369034</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>581.3058073983079</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5595,22 +5595,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1002.792923427374</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1323.128242957076</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N18" t="n">
-        <v>1667.648898594694</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O18" t="n">
-        <v>1916.402312678656</v>
+        <v>2201.935021465331</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>289.9398668627125</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>121.0036839348056</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5680,13 +5680,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1043.759793676903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1043.759793676903</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>789.0753054710162</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W19" t="n">
-        <v>499.6581354340557</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>692.3809108364824</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>471.5883316929522</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,22 +5738,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,19 +5762,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>575.7664246322204</v>
+        <v>664.5909712050459</v>
       </c>
       <c r="L21" t="n">
-        <v>1189.663494389109</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M21" t="n">
-        <v>1509.998813918811</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N21" t="n">
-        <v>1854.519469556429</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>376.9270045185177</v>
+        <v>564.4843764226428</v>
       </c>
       <c r="C22" t="n">
-        <v>376.9270045185177</v>
+        <v>395.5481934947359</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185177</v>
+        <v>395.5481934947359</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1484.332141331391</v>
       </c>
       <c r="U22" t="n">
-        <v>1068.785218529248</v>
+        <v>1484.332141331391</v>
       </c>
       <c r="V22" t="n">
-        <v>1068.785218529248</v>
+        <v>1484.332141331391</v>
       </c>
       <c r="W22" t="n">
-        <v>779.3680484922876</v>
+        <v>1194.91497129443</v>
       </c>
       <c r="X22" t="n">
-        <v>779.3680484922876</v>
+        <v>966.9254203964126</v>
       </c>
       <c r="Y22" t="n">
-        <v>558.5754693487575</v>
+        <v>746.1328412528825</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -5993,28 +5993,28 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>575.7664246322204</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L24" t="n">
-        <v>1189.663494389109</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M24" t="n">
-        <v>1509.998813918811</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N24" t="n">
-        <v>1854.519469556429</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.8632439327646</v>
+        <v>840.6662285267281</v>
       </c>
       <c r="C25" t="n">
-        <v>565.9270610048577</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1476.055380078237</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1476.055380078237</v>
+        <v>1358.072949461706</v>
       </c>
       <c r="T25" t="n">
-        <v>1252.269964867743</v>
+        <v>1358.072949461706</v>
       </c>
       <c r="U25" t="n">
-        <v>1252.269964867743</v>
+        <v>1358.072949461706</v>
       </c>
       <c r="V25" t="n">
-        <v>1252.269964867743</v>
+        <v>1358.072949461706</v>
       </c>
       <c r="W25" t="n">
-        <v>962.8527948307819</v>
+        <v>1068.655779424746</v>
       </c>
       <c r="X25" t="n">
-        <v>734.8632439327646</v>
+        <v>840.6662285267281</v>
       </c>
       <c r="Y25" t="n">
-        <v>734.8632439327646</v>
+        <v>840.6662285267281</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6212,40 +6212,40 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.325632214049</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1608.660951743751</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N27" t="n">
-        <v>1953.181607381369</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O27" t="n">
-        <v>2440.930027762787</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>678.2225136306376</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6388,7 +6388,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471189</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1450.313722771503</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1450.313722771503</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1450.313722771503</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1450.313722771503</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V28" t="n">
-        <v>1195.629234565616</v>
+        <v>789.0753054710165</v>
       </c>
       <c r="W28" t="n">
-        <v>906.212064528655</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X28" t="n">
-        <v>678.2225136306376</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>678.2225136306376</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,19 +6540,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>327.180197328635</v>
+        <v>1239.074732711013</v>
       </c>
       <c r="M30" t="n">
-        <v>1095.548343721096</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="N30" t="n">
-        <v>1440.068999358714</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O30" t="n">
         <v>1808.163466324677</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542178</v>
+        <v>672.9002034592888</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542178</v>
+        <v>559.7248858127526</v>
       </c>
       <c r="D31" t="n">
-        <v>345.1766558232529</v>
+        <v>465.3691116817876</v>
       </c>
       <c r="E31" t="n">
-        <v>345.1766558232529</v>
+        <v>373.2168833807652</v>
       </c>
       <c r="F31" t="n">
-        <v>254.0475736067133</v>
+        <v>282.0878011642256</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864671</v>
@@ -6628,7 +6628,7 @@
         <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6652,19 +6652,19 @@
         <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1369.704507242554</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818929</v>
+        <v>1136.048202486964</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652463</v>
+        <v>963.8195168703171</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030868</v>
+        <v>798.7878030081578</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,28 +6683,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,31 +6716,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028583</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028583</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>417.5524109899876</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N33" t="n">
-        <v>1221.963989254138</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2201.935021465331</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2406.957502247541</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,34 +6920,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>417.5524109899876</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N36" t="n">
-        <v>1221.963989254138</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7160,64 +7160,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028589</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>711.1141612171746</v>
+        <v>1120.26893587578</v>
       </c>
       <c r="M39" t="n">
-        <v>1479.482307609636</v>
+        <v>1440.604255405482</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.893885873787</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>334.2881267578673</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504509</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>334.2881267578673</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>334.2881267578673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9261,10 +9261,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298482</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>209.3059168988227</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.4947344032277</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>130.6844047393605</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23470,16 +23470,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985789</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>30.75201340998649</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>67.78427777360267</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>125.0667464684378</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>78.82781133359626</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.1092731241424</v>
       </c>
       <c r="U22" t="n">
-        <v>81.95517194859912</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>87.33207082892407</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>58.48592209836907</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>61.84783009525724</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>33.55325026999168</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180121</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>49.73870624883641</v>
+        <v>77.19486980261426</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728566</v>
@@ -26323,37 +26323,37 @@
         <v>156411.6238950835</v>
       </c>
       <c r="F2" t="n">
-        <v>156411.6238950836</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="G2" t="n">
-        <v>156411.6238950836</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="H2" t="n">
         <v>156411.6238950835</v>
       </c>
       <c r="I2" t="n">
+        <v>156411.6238950836</v>
+      </c>
+      <c r="J2" t="n">
         <v>156411.6238950835</v>
-      </c>
-      <c r="J2" t="n">
-        <v>156411.6238950834</v>
       </c>
       <c r="K2" t="n">
         <v>162728.8549381079</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728569</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.353972857</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728569</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728569</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086687</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284565</v>
       </c>
     </row>
     <row r="4">
@@ -26424,16 +26424,16 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758139</v>
+        <v>787.7936905758485</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758822</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
@@ -26442,22 +26442,22 @@
         <v>787.7936905758693</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477246</v>
+        <v>18952.41620477239</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.5809318964</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26497,19 +26497,19 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-647677.7424857165</v>
+        <v>-647677.7424857162</v>
       </c>
       <c r="C6" t="n">
-        <v>-57709.86327117195</v>
+        <v>-57709.86327117193</v>
       </c>
       <c r="D6" t="n">
-        <v>-57709.86327117194</v>
+        <v>-57709.86327117187</v>
       </c>
       <c r="E6" t="n">
-        <v>-461523.5322211054</v>
+        <v>-461620.9913470774</v>
       </c>
       <c r="F6" t="n">
-        <v>63636.50425579117</v>
+        <v>63539.04512981887</v>
       </c>
       <c r="G6" t="n">
-        <v>63636.50425579105</v>
+        <v>63539.04512981881</v>
       </c>
       <c r="H6" t="n">
-        <v>63636.50425579103</v>
+        <v>63539.04512981886</v>
       </c>
       <c r="I6" t="n">
-        <v>63636.50425579102</v>
+        <v>63539.04512981893</v>
       </c>
       <c r="J6" t="n">
-        <v>-112786.714936802</v>
+        <v>-112884.1740627741</v>
       </c>
       <c r="K6" t="n">
-        <v>2985.624900267023</v>
+        <v>2967.131162332723</v>
       </c>
       <c r="L6" t="n">
-        <v>32943.76042006808</v>
+        <v>32943.76042006815</v>
       </c>
       <c r="M6" t="n">
-        <v>-91514.34801290219</v>
+        <v>-91514.34801290206</v>
       </c>
       <c r="N6" t="n">
-        <v>43286.66722093524</v>
+        <v>43286.66722093505</v>
       </c>
       <c r="O6" t="n">
-        <v>43286.66722093508</v>
+        <v>43286.66722093515</v>
       </c>
       <c r="P6" t="n">
-        <v>-875.9380819105572</v>
+        <v>-875.9380819104408</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,10 +26719,10 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26823,7 +26823,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108358</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,23 +27376,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>150.598340449332</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27433,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>345.857060768467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>88.6940505811381</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>123.4723713253233</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>168.4323246176523</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>114.4464840740057</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>102.4367953827292</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>6.182121090547923</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>182.4260107774312</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>31.30663031198105</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,22 +28011,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>145.1317545506099</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>45.85732950135925</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28059,7 +28059,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31376,7 +31376,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31613,7 +31613,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,16 +31835,16 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31856,10 +31856,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>171.3135836203301</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>171.3135836203298</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,22 +32066,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>58.66904626099256</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>278.4799167015761</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -32093,19 +32093,19 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,10 +32312,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
@@ -32330,19 +32330,19 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>231.7356543115325</v>
+        <v>241.4090972701575</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32482,7 +32482,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927201</v>
       </c>
       <c r="O20" t="n">
         <v>562.4526372540886</v>
@@ -32552,10 +32552,10 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>188.7581524866007</v>
+        <v>278.479916701576</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -32570,10 +32570,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565529</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32786,16 +32786,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>188.7581524866007</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>34.7174057112735</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -32807,7 +32807,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32944,40 +32944,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,19 +33017,19 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -33038,13 +33038,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.4090972701572</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>111.3199910445496</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33117,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33129,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33181,40 +33181,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,31 +33254,31 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>338.063701399498</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>120.5465180626268</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33354,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33366,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>340.8546090773502</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>148.708529914412</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33588,10 +33588,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33655,40 +33655,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,34 +33728,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>241.4090972701573</v>
       </c>
       <c r="O36" t="n">
-        <v>340.8546090773502</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33828,7 +33828,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,10 +33840,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,31 +33965,31 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>218.0578460103735</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34129,40 +34129,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,34 +34202,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>425.8974584957643</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34302,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34314,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34366,40 +34366,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,34 +34439,34 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0.9375118102115607</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34539,7 +34539,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,10 +34551,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
@@ -35504,10 +35504,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>355.801944845937</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>241.4090972701574</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>185.2928442992122</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>510.7658822251611</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
@@ -35741,7 +35741,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
@@ -35978,10 +35978,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>416.2240155371395</v>
+        <v>425.8974584957645</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36200,10 +36200,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>315.3819505248204</v>
+        <v>405.1037147397956</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
@@ -36218,7 +36218,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>315.3819505248204</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>358.2884355392551</v>
       </c>
       <c r="N24" t="n">
         <v>348.0006622602202</v>
@@ -36455,7 +36455,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36686,13 +36686,13 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>492.6751721024423</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>295.8083522701565</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36759,7 +36759,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>570.349666923083</v>
       </c>
       <c r="M30" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>371.8125928949119</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -36996,10 +36996,10 @@
         <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043179</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>592.1206839096353</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>218.8040435642396</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37233,13 +37233,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>589.4097595303775</v>
       </c>
       <c r="O36" t="n">
-        <v>592.1206839096353</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,7 +37470,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352442</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>450.3438115339585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>343.1107267700522</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37707,10 +37707,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>773.8981207559846</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,10 +37944,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>71.46447792446374</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.9381740704318</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38181,7 +38181,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352442</v>
